--- a/src/main/resources/rules.xlsx
+++ b/src/main/resources/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\SnapFinance\git\neurosnap\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E502636-2EAA-4E65-A76B-6C1B2DD02531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F2285A-0309-4324-ADA7-EA5A4CF05ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{A8693E07-D706-4FB1-8AD1-48F0098A97FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{A8693E07-D706-4FB1-8AD1-48F0098A97FB}"/>
   </bookViews>
   <sheets>
     <sheet name="PaymentGoal" sheetId="4" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>DISCIPLINED</t>
   </si>
   <si>
-    <t>MOSTLY DISCIPLINED</t>
-  </si>
-  <si>
     <t xml:space="preserve">Income Range </t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Confidence</t>
+  </si>
+  <si>
+    <t>MOSTLY_DISCIPLINED</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,31 +574,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="15">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="15">
-        <v>-12</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="15">
         <v>0</v>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D16356-A7CC-4E5D-BD25-1A04BCFAF988}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -624,7 +624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="11">
         <v>-0.5</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11">
         <v>0</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -664,7 +664,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,23 +674,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7">
-        <v>12</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>-12</v>
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3AE679-CB87-45C4-90F0-D11D1804E700}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +749,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>0.5</v>

--- a/src/main/resources/rules.xlsx
+++ b/src/main/resources/rules.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\SnapFinance\git\neurosnap\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F2285A-0309-4324-ADA7-EA5A4CF05ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00043D26-BC23-46E7-912F-C6AEFD0CA827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{A8693E07-D706-4FB1-8AD1-48F0098A97FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{A8693E07-D706-4FB1-8AD1-48F0098A97FB}"/>
   </bookViews>
   <sheets>
     <sheet name="PaymentGoal" sheetId="4" r:id="rId1"/>
     <sheet name="ConfidenceScore" sheetId="3" r:id="rId2"/>
     <sheet name="Income" sheetId="2" r:id="rId3"/>
     <sheet name="PaymentHistory" sheetId="1" r:id="rId4"/>
+    <sheet name="APR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Payment History</t>
   </si>
@@ -84,6 +85,21 @@
   </si>
   <si>
     <t>MOSTLY_DISCIPLINED</t>
+  </si>
+  <si>
+    <t>APR TIERS</t>
+  </si>
+  <si>
+    <t>Min APR</t>
+  </si>
+  <si>
+    <t>Max APR</t>
+  </si>
+  <si>
+    <t>Min Score</t>
+  </si>
+  <si>
+    <t>Max Score</t>
   </si>
 </sst>
 </file>
@@ -210,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -227,6 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +581,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +631,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +681,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3AE679-CB87-45C4-90F0-D11D1804E700}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,4 +775,92 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97366A5F-C232-4F36-8A69-BCF40E6330B7}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>49</v>
+      </c>
+      <c r="D2" s="11">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11">
+        <v>50</v>
+      </c>
+      <c r="C3" s="11">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11">
+        <v>13</v>
+      </c>
+      <c r="E3" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11">
+        <v>80</v>
+      </c>
+      <c r="C4" s="11">
+        <v>100</v>
+      </c>
+      <c r="D4" s="11">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/rules.xlsx
+++ b/src/main/resources/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\SnapFinance\git\neurosnap\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00043D26-BC23-46E7-912F-C6AEFD0CA827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C0A72-194D-489B-A19B-7B02BB7CF06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{A8693E07-D706-4FB1-8AD1-48F0098A97FB}"/>
   </bookViews>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -243,7 +243,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,7 +796,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,70 +807,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="20">
         <v>49</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="20">
         <v>19</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="20">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="20">
         <v>50</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="20">
         <v>79</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="20">
         <v>13</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="20">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="20">
         <v>80</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="20">
         <v>100</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="20">
         <v>8</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="20">
         <v>12</v>
       </c>
     </row>
